--- a/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="439">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1339,6 +1339,18 @@
   </si>
   <si>
     <t>UT(0-3-21)</t>
+  </si>
+  <si>
+    <t>9/25,26/2023</t>
+  </si>
+  <si>
+    <t>10/31 , 11/3,6/2023</t>
+  </si>
+  <si>
+    <t>12/11,12/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -3774,7 +3786,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K593" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K596" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4152,12 +4164,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K593"/>
+  <dimension ref="A2:K596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A510" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A552" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F527" sqref="F527"/>
+      <selection pane="bottomLeft" activeCell="B572" sqref="B572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,7 +4330,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-18.827000000000112</v>
+        <v>-15.077000000000112</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4328,7 +4340,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>57.708999999999889</v>
+        <v>53.458999999999889</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14946,7 +14958,7 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>57.708999999999889</v>
+        <v>53.458999999999889</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
@@ -16798,13 +16810,15 @@
       <c r="B561" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C561" s="13"/>
+      <c r="C561" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D561" s="39"/>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G561" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H561" s="39">
         <v>1</v>
@@ -16816,10 +16830,10 @@
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B562" s="20"/>
+      <c r="A562" s="40"/>
+      <c r="B562" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
@@ -16828,52 +16842,72 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H562" s="39"/>
+      <c r="H562" s="39">
+        <v>2</v>
+      </c>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
+      <c r="K562" s="51" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B563" s="20"/>
-      <c r="C563" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B563" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="39"/>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H563" s="39"/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H563" s="39">
+        <v>1</v>
+      </c>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="20"/>
+      <c r="K563" s="51">
+        <v>45208</v>
+      </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B564" s="20"/>
-      <c r="C564" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B564" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D564" s="39"/>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H564" s="39"/>
+      <c r="G564" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H564" s="39">
+        <v>3</v>
+      </c>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
+      <c r="K564" s="20" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A565" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B565" s="20"/>
+      <c r="A565" s="40"/>
+      <c r="B565" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C565" s="13"/>
       <c r="D565" s="39"/>
       <c r="E565" s="9"/>
@@ -16885,13 +16919,17 @@
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="20"/>
+      <c r="K565" s="51">
+        <v>45237</v>
+      </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B566" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B566" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
@@ -16900,24 +16938,25 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H566" s="39"/>
+      <c r="H566" s="39">
+        <v>2</v>
+      </c>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
+      <c r="K566" s="20" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40">
-        <v>45352</v>
+      <c r="A567" s="48" t="s">
+        <v>438</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G567" s="13"/>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
@@ -16925,7 +16964,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16943,7 +16982,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16961,7 +17000,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16979,7 +17018,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16997,7 +17036,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17015,7 +17054,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17033,7 +17072,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17051,7 +17090,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17069,7 +17108,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17087,7 +17126,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17105,7 +17144,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17123,7 +17162,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -17141,7 +17180,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -17159,7 +17198,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17177,7 +17216,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17194,7 +17233,9 @@
       <c r="K582" s="20"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40"/>
+      <c r="A583" s="40">
+        <v>45748</v>
+      </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
       <c r="D583" s="39"/>
@@ -17210,7 +17251,9 @@
       <c r="K583" s="20"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40"/>
+      <c r="A584" s="40">
+        <v>45778</v>
+      </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
@@ -17226,7 +17269,9 @@
       <c r="K584" s="20"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="40"/>
+      <c r="A585" s="40">
+        <v>45809</v>
+      </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
@@ -17354,20 +17399,68 @@
       <c r="K592" s="20"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" s="41"/>
-      <c r="B593" s="15"/>
-      <c r="C593" s="42"/>
-      <c r="D593" s="43"/>
-      <c r="E593" s="50"/>
-      <c r="F593" s="15"/>
-      <c r="G593" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H593" s="43"/>
-      <c r="I593" s="50"/>
-      <c r="J593" s="12"/>
-      <c r="K593" s="15"/>
+      <c r="A593" s="40"/>
+      <c r="B593" s="20"/>
+      <c r="C593" s="13"/>
+      <c r="D593" s="39"/>
+      <c r="E593" s="9"/>
+      <c r="F593" s="20"/>
+      <c r="G593" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H593" s="39"/>
+      <c r="I593" s="9"/>
+      <c r="J593" s="11"/>
+      <c r="K593" s="20"/>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="40"/>
+      <c r="B594" s="20"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="39"/>
+      <c r="E594" s="9"/>
+      <c r="F594" s="20"/>
+      <c r="G594" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H594" s="39"/>
+      <c r="I594" s="9"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="20"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="40"/>
+      <c r="B595" s="20"/>
+      <c r="C595" s="13"/>
+      <c r="D595" s="39"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="20"/>
+      <c r="G595" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="39"/>
+      <c r="I595" s="9"/>
+      <c r="J595" s="11"/>
+      <c r="K595" s="20"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" s="41"/>
+      <c r="B596" s="15"/>
+      <c r="C596" s="42"/>
+      <c r="D596" s="43"/>
+      <c r="E596" s="50"/>
+      <c r="F596" s="15"/>
+      <c r="G596" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H596" s="43"/>
+      <c r="I596" s="50"/>
+      <c r="J596" s="12"/>
+      <c r="K596" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
